--- a/BusinessAnalysis/ambiguity_queries.xlsx
+++ b/BusinessAnalysis/ambiguity_queries.xlsx
@@ -304,9 +304,6 @@
     <t>KYC validation</t>
   </si>
   <si>
-    <t>Do we only validate the selfie image vs the government ID image to be the same person? Or do we require other validations of the Govt ID, e.g. genuinity, expiry date, name match etc.</t>
-  </si>
-  <si>
     <t>For MVP we can only validate the selfie image vs the government ID image to be the same person.</t>
   </si>
   <si>
@@ -328,9 +325,6 @@
     <t>Create password verification</t>
   </si>
   <si>
-    <t>Do we keep Password Verification while registering in MVP?</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -344,6 +338,12 @@
   </si>
   <si>
     <t>Will we consider Light/ Dark modes or Color Themes in MVP?</t>
+  </si>
+  <si>
+    <t>Do we only validate the selfie image vs the government ID image to be the same person? Or do we require other validations of the Govt ID, e.g. genuinity, expiry date, DoB, name match etc.</t>
+  </si>
+  <si>
+    <t>Do we keep Password Confirmation while registering in MVP?</t>
   </si>
 </sst>
 </file>
@@ -737,10 +737,10 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -751,7 +751,7 @@
     <col min="4" max="4" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="46.53125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="29.73046875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.86328125" style="2" customWidth="1"/>
     <col min="8" max="8" width="6.265625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.265625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -770,7 +770,7 @@
         <v>14</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>15</v>
@@ -1152,7 +1152,7 @@
         <v>46</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="5" t="s">
@@ -1168,7 +1168,7 @@
         <v>5</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
@@ -1186,7 +1186,7 @@
         <v>46</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="5" t="s">
@@ -1202,7 +1202,7 @@
         <v>5</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="57" x14ac:dyDescent="0.45">
@@ -1217,10 +1217,10 @@
         <v>12</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="5" t="s">
@@ -1236,7 +1236,7 @@
         <v>5</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
@@ -1251,10 +1251,10 @@
         <v>12</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="5" t="s">
@@ -1285,10 +1285,10 @@
         <v>12</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="5" t="s">
@@ -1319,10 +1319,10 @@
         <v>12</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="5" t="s">
@@ -1342,8 +1342,12 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="7"/>

--- a/BusinessAnalysis/ambiguity_queries.xlsx
+++ b/BusinessAnalysis/ambiguity_queries.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="66">
   <si>
     <t>ID</t>
   </si>
@@ -346,6 +346,29 @@
   </si>
   <si>
     <t>For MVP we are reusing the logo here. We can get a proper artwork in the production phase.</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>Renter Filter</t>
+  </si>
+  <si>
+    <t>What are the different categories of e-Bikes?
+Road
+Mountain
+City/Commuter
+Hybrid
+Cruiser
+Folding
+Fat-Tire
+Cargo</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need this information to proceed </t>
   </si>
 </sst>
 </file>
@@ -767,13 +790,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1001,212 +1024,210 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="3">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="7">
         <v>1.4</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="3" t="s">
+      <c r="G7" s="10"/>
+      <c r="H7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="3">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="7">
         <v>1.4</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="3" t="s">
+      <c r="G8" s="10"/>
+      <c r="H8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="3">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="7">
         <v>1.4</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="3" t="s">
+      <c r="G9" s="10"/>
+      <c r="H9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A10" s="3">
+    <row r="10" spans="1:12" ht="128.25" x14ac:dyDescent="0.45">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B11" s="7">
         <v>1.5</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="3" t="s">
+      <c r="G11" s="10"/>
+      <c r="H11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L11" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A11" s="3">
+    <row r="12" spans="1:12" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B12" s="7">
         <v>1.5</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="3" t="s">
+      <c r="G12" s="10"/>
+      <c r="H12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L12" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="57" x14ac:dyDescent="0.45">
-      <c r="A12" s="3">
+    <row r="13" spans="1:12" ht="57" x14ac:dyDescent="0.45">
+      <c r="A13" s="3">
         <v>11</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A13" s="3">
-        <v>12</v>
       </c>
       <c r="B13" s="3">
         <v>1.5</v>
@@ -1219,7 +1240,7 @@
         <v>43</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="3" t="s">
@@ -1235,12 +1256,12 @@
         <v>5</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="57" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3">
         <v>1.5</v>
@@ -1250,10 +1271,10 @@
         <v>12</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="3" t="s">
@@ -1269,12 +1290,12 @@
         <v>5</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="57" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3">
         <v>1.5</v>
@@ -1284,10 +1305,10 @@
         <v>12</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="3" t="s">
@@ -1303,12 +1324,12 @@
         <v>5</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3">
         <v>1.5</v>
@@ -1318,10 +1339,10 @@
         <v>12</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="3" t="s">
@@ -1342,20 +1363,20 @@
     </row>
     <row r="17" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1.5</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="3" t="s">
@@ -1374,27 +1395,47 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B19" s="3">
         <v>1</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="5"/>
@@ -1720,7 +1761,7 @@
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="5"/>
-      <c r="F42" s="4"/>
+      <c r="F42" s="6"/>
       <c r="G42" s="4"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -1728,31 +1769,45 @@
       <c r="K42" s="3"/>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="1:12" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A43" s="3">
-        <v>2</v>
-      </c>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="5"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="5"/>
+    </row>
+    <row r="44" spans="1:12" ht="142.5" x14ac:dyDescent="0.45">
+      <c r="A44" s="3">
+        <v>2</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F44" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G43" s="4"/>
-      <c r="H43" s="3" t="s">
+      <c r="G44" s="4"/>
+      <c r="H44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3" t="s">
+      <c r="I44" s="3"/>
+      <c r="J44" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="K44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L43" s="5" t="s">
+      <c r="L44" s="5" t="s">
         <v>10</v>
       </c>
     </row>
